--- a/cases/goodhostpital2021/对标资料库.xlsx
+++ b/cases/goodhostpital2021/对标资料库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\山东中医药大学附属医院\F资料库与维度导向库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF5996B-4EF8-4BBD-BE35-7F45C98A1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271A608-683D-43B6-94A3-3EE4DCB4C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5"/>
@@ -11189,11 +11189,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -11350,9 +11350,7 @@
       <c r="E7" s="22">
         <v>61.428969121994427</v>
       </c>
-      <c r="F7" s="22">
-        <v>100</v>
-      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
         <v>100</v>
       </c>
@@ -11898,9 +11896,7 @@
       <c r="E32" s="22">
         <v>122.48936430357141</v>
       </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
+      <c r="F32" s="22"/>
       <c r="G32" s="22" t="s">
         <v>100</v>
       </c>
@@ -12093,9 +12089,7 @@
       <c r="E41" s="22">
         <v>38.571030878005566</v>
       </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
+      <c r="F41" s="22"/>
       <c r="G41" s="22" t="s">
         <v>100</v>
       </c>
@@ -12112,7 +12106,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>

--- a/cases/goodhostpital2021/对标资料库.xlsx
+++ b/cases/goodhostpital2021/对标资料库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\山东中医药大学附属医院\F资料库与维度导向库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271A608-683D-43B6-94A3-3EE4DCB4C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F56C4-7299-4EA7-B84D-98BF7C237869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">老年医学科!$D$1:$F$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">乳腺甲状腺外科!$D$1:$F$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">血液科!$D$1:$F$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">医院!$A$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">医院!$A$1:$G$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">肿瘤内科!$D$1:$F$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">周围血管科!$D$1:$F$41</definedName>
     <definedName name="GG">#REF!</definedName>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="109">
   <si>
     <t>病床使用率</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>医疗服务收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t>医疗盈余率</t>
   </si>
   <si>
     <t>博士研究生导师占比</t>
@@ -457,6 +454,10 @@
   </si>
   <si>
     <t>(篇)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(床日)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1039,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB8D8B8-8A14-4E8A-9EA1-82174882624B}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5"/>
@@ -1058,25 +1059,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="26.5" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -1183,7 +1184,7 @@
         <v>1684</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>25</v>
@@ -1315,7 +1316,7 @@
         <v>359</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>22</v>
@@ -1553,7 +1554,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="21">
         <v>0.36027607361963193</v>
@@ -1574,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="21">
         <v>0.42116564417177915</v>
@@ -1595,7 +1596,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="21">
         <v>5.1533742331288344E-2</v>
@@ -1616,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="21">
         <v>4.9233128834355828E-2</v>
@@ -1697,7 +1698,7 @@
     <row r="31" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A31" s="10"/>
       <c r="B31" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>22</v>
@@ -1777,70 +1778,70 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A35" s="10"/>
+      <c r="A35" s="10">
+        <v>1395</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="21">
-        <v>3.5050141863164046</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E35" s="21">
-        <v>4.9799503024479632</v>
+        <v>0.95142857142857151</v>
       </c>
       <c r="F35" s="21">
-        <v>3.5941937761037019</v>
+        <v>0.79</v>
       </c>
       <c r="G35" s="21">
-        <v>-0.17494970978479699</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A36" s="10">
-        <v>1395</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>14</v>
+        <v>323</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="21">
-        <v>0.63200000000000001</v>
+        <v>0.95289378739345176</v>
       </c>
       <c r="E36" s="21">
-        <v>0.95142857142857151</v>
+        <v>1.5059295298598436</v>
       </c>
       <c r="F36" s="21">
-        <v>0.79</v>
+        <v>0.73888521284305386</v>
       </c>
       <c r="G36" s="21">
-        <v>1.27</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A37" s="10">
-        <v>323</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>95</v>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="21">
-        <v>0.95289378739345176</v>
+        <v>5.8582223821518538</v>
       </c>
       <c r="E37" s="21">
-        <v>1.5059295298598436</v>
+        <v>1.8865984681026065</v>
       </c>
       <c r="F37" s="21">
-        <v>0.73888521284305386</v>
+        <v>2.3029866858582224</v>
       </c>
       <c r="G37" s="21">
-        <v>1.639344262295082</v>
+        <v>4.0302267002518892</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -1852,16 +1853,16 @@
         <v>22</v>
       </c>
       <c r="D38" s="21">
-        <v>5.8582223821518538</v>
+        <v>12.794907693090307</v>
       </c>
       <c r="E38" s="21">
-        <v>1.8865984681026065</v>
+        <v>11.450268750924602</v>
       </c>
       <c r="F38" s="21">
-        <v>2.3029866858582224</v>
+        <v>11.859443631039532</v>
       </c>
       <c r="G38" s="21">
-        <v>4.0302267002518892</v>
+        <v>14.204946996466431</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -1873,16 +1874,16 @@
         <v>22</v>
       </c>
       <c r="D39" s="21">
-        <v>12.794907693090307</v>
+        <v>16.548228065635556</v>
       </c>
       <c r="E39" s="21">
-        <v>11.450268750924602</v>
+        <v>8.1710143498200107</v>
       </c>
       <c r="F39" s="21">
-        <v>11.859443631039532</v>
+        <v>10.639336261591021</v>
       </c>
       <c r="G39" s="21">
-        <v>14.204946996466431</v>
+        <v>10.530035335689046</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -1894,16 +1895,16 @@
         <v>22</v>
       </c>
       <c r="D40" s="21">
-        <v>16.548228065635556</v>
+        <v>6.8619189486279488</v>
       </c>
       <c r="E40" s="21">
-        <v>8.1710143498200107</v>
+        <v>8.8219340204152079</v>
       </c>
       <c r="F40" s="21">
-        <v>10.639336261591021</v>
+        <v>6.8326012689116649</v>
       </c>
       <c r="G40" s="21">
-        <v>10.530035335689046</v>
+        <v>13.380447585394581</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -1915,20 +1916,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="21">
-        <v>6.8619189486279488</v>
+        <v>24.722813862292732</v>
       </c>
       <c r="E41" s="21">
-        <v>8.8219340204152079</v>
+        <v>22.437003797031412</v>
       </c>
       <c r="F41" s="21">
-        <v>6.8326012689116649</v>
+        <v>21.522693997071745</v>
       </c>
       <c r="G41" s="21">
-        <v>13.380447585394581</v>
+        <v>20.21201413427562</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10">
+        <v>1675</v>
+      </c>
       <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
@@ -1936,22 +1939,20 @@
         <v>22</v>
       </c>
       <c r="D42" s="21">
-        <v>24.722813862292732</v>
+        <v>36.321999999999996</v>
       </c>
       <c r="E42" s="21">
-        <v>22.437003797031412</v>
+        <v>35.867142857142859</v>
       </c>
       <c r="F42" s="21">
-        <v>21.522693997071745</v>
+        <v>45.19</v>
       </c>
       <c r="G42" s="21">
-        <v>20.21201413427562</v>
+        <v>33.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A43" s="10">
-        <v>1675</v>
-      </c>
+      <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
         <v>56</v>
       </c>
@@ -1959,173 +1960,173 @@
         <v>22</v>
       </c>
       <c r="D43" s="21">
-        <v>36.321999999999996</v>
+        <v>11.394920184917563</v>
       </c>
       <c r="E43" s="21">
-        <v>35.867142857142859</v>
+        <v>9.7698125545371681</v>
       </c>
       <c r="F43" s="21">
-        <v>45.19</v>
+        <v>20.250811355830734</v>
       </c>
       <c r="G43" s="21">
-        <v>33.89</v>
+        <v>12.009075512095357</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A44" s="10"/>
+      <c r="A44" s="10">
+        <v>312</v>
+      </c>
       <c r="B44" s="11" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="21">
-        <v>11.394920184917563</v>
+        <v>85.51</v>
       </c>
       <c r="E44" s="21">
-        <v>9.7698125545371681</v>
+        <v>94.028571428571425</v>
       </c>
       <c r="F44" s="21">
-        <v>20.250811355830734</v>
+        <v>94.83</v>
       </c>
       <c r="G44" s="21">
-        <v>12.009075512095357</v>
+        <v>96.79</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A45" s="10">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D45" s="21">
-        <v>85.51</v>
+        <v>7.9134000000000002</v>
       </c>
       <c r="E45" s="21">
-        <v>94.028571428571425</v>
+        <v>10.715714285714286</v>
       </c>
       <c r="F45" s="21">
-        <v>94.83</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G45" s="21">
-        <v>96.79</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A46" s="10">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D46" s="21">
-        <v>7.9134000000000002</v>
+        <v>0.21399999999999997</v>
       </c>
       <c r="E46" s="21">
-        <v>10.715714285714286</v>
+        <v>0.18142857142857141</v>
       </c>
       <c r="F46" s="21">
-        <v>8.1300000000000008</v>
+        <v>0.24</v>
       </c>
       <c r="G46" s="21">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="16.5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="17">
       <c r="A47" s="10">
-        <v>325</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="21">
+        <v>43.421399999999998</v>
+      </c>
+      <c r="E47" s="21">
+        <v>32.35857142857143</v>
+      </c>
+      <c r="F47" s="21">
+        <v>32.01</v>
+      </c>
+      <c r="G47" s="21">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="16.5">
+      <c r="A48" s="10">
+        <v>310</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="21">
-        <v>0.21399999999999997</v>
-      </c>
-      <c r="E47" s="21">
-        <v>0.18142857142857141</v>
-      </c>
-      <c r="F47" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="G47" s="21">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="17">
-      <c r="A48" s="10">
-        <v>309</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="D48" s="21">
-        <v>43.421399999999998</v>
+        <v>14.0288</v>
       </c>
       <c r="E48" s="21">
-        <v>32.35857142857143</v>
+        <v>4.6231428571428568</v>
       </c>
       <c r="F48" s="21">
-        <v>32.01</v>
+        <v>3.06</v>
       </c>
       <c r="G48" s="21">
-        <v>35.28</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A49" s="10">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C49" s="12"/>
       <c r="D49" s="21">
-        <v>14.0288</v>
+        <v>0.77138437741685995</v>
       </c>
       <c r="E49" s="21">
-        <v>4.6231428571428568</v>
+        <v>0.54822120464952451</v>
       </c>
       <c r="F49" s="21">
-        <v>3.06</v>
+        <v>0.57870007830853565</v>
       </c>
       <c r="G49" s="21">
-        <v>1.68</v>
+        <v>0.54142502071251031</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A50" s="10">
-        <v>199</v>
-      </c>
+      <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="D50" s="21">
-        <v>0.77138437741685995</v>
+        <v>6.1660316823741725</v>
       </c>
       <c r="E50" s="21">
-        <v>0.54822120464952451</v>
+        <v>94.461578000513995</v>
       </c>
       <c r="F50" s="21">
-        <v>0.57870007830853565</v>
+        <v>100</v>
       </c>
       <c r="G50" s="21">
-        <v>0.54142502071251031</v>
+        <v>94.338179035960209</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -2137,16 +2138,16 @@
         <v>22</v>
       </c>
       <c r="D51" s="21">
-        <v>6.1660316823741725</v>
+        <v>20.403127632672483</v>
       </c>
       <c r="E51" s="21">
-        <v>94.461578000513995</v>
+        <v>17.16341762455427</v>
       </c>
       <c r="F51" s="21">
-        <v>100</v>
+        <v>16.524548186745928</v>
       </c>
       <c r="G51" s="21">
-        <v>94.338179035960209</v>
+        <v>18.319432698674529</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -2155,19 +2156,19 @@
         <v>61</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D52" s="21">
-        <v>20.403127632672483</v>
+        <v>57.036963190184046</v>
       </c>
       <c r="E52" s="21">
-        <v>17.16341762455427</v>
+        <v>15.578737745098039</v>
       </c>
       <c r="F52" s="21">
-        <v>16.524548186745928</v>
+        <v>24.087022900763358</v>
       </c>
       <c r="G52" s="21">
-        <v>18.319432698674529</v>
+        <v>26.884713919726728</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="16.5">
@@ -2176,66 +2177,68 @@
         <v>62</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D53" s="21">
-        <v>57.036963190184046</v>
+        <v>306.81093404907972</v>
       </c>
       <c r="E53" s="21">
-        <v>15.578737745098039</v>
+        <v>113.36311136642158</v>
       </c>
       <c r="F53" s="21">
-        <v>24.087022900763358</v>
+        <v>137.74574045801529</v>
       </c>
       <c r="G53" s="21">
-        <v>26.884713919726728</v>
+        <v>137.42010247651581</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A54" s="10"/>
       <c r="B54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="D54" s="21">
-        <v>306.81093404907972</v>
+        <v>127.78713957055214</v>
       </c>
       <c r="E54" s="21">
-        <v>113.36311136642158</v>
+        <v>131.69899241727941</v>
       </c>
       <c r="F54" s="21">
-        <v>137.74574045801529</v>
+        <v>242.72203053435115</v>
       </c>
       <c r="G54" s="21">
-        <v>137.42010247651581</v>
+        <v>196.41212638770278</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A55" s="10"/>
+      <c r="A55" s="10">
+        <v>206</v>
+      </c>
       <c r="B55" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D55" s="21">
-        <v>127.78713957055214</v>
+        <v>7.6614976912582877</v>
       </c>
       <c r="E55" s="21">
-        <v>131.69899241727941</v>
+        <v>9.529079522642574</v>
       </c>
       <c r="F55" s="21">
-        <v>242.72203053435115</v>
+        <v>17.146112368103868</v>
       </c>
       <c r="G55" s="21">
-        <v>196.41212638770278</v>
+        <v>13.834379309773826</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A56" s="10">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>66</v>
@@ -2244,22 +2247,20 @@
         <v>25</v>
       </c>
       <c r="D56" s="21">
-        <v>7.6614976912582877</v>
+        <v>2.4649106958616449</v>
       </c>
       <c r="E56" s="21">
-        <v>9.529079522642574</v>
+        <v>2.1044953425363722</v>
       </c>
       <c r="F56" s="21">
-        <v>17.146112368103868</v>
+        <v>2.1804064198261828</v>
       </c>
       <c r="G56" s="21">
-        <v>13.834379309773826</v>
+        <v>2.0350624865458178</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A57" s="10">
-        <v>205</v>
-      </c>
+      <c r="A57" s="10"/>
       <c r="B57" s="11" t="s">
         <v>67</v>
       </c>
@@ -2267,240 +2268,240 @@
         <v>25</v>
       </c>
       <c r="D57" s="21">
-        <v>2.4649106958616449</v>
+        <v>69.946094354215006</v>
       </c>
       <c r="E57" s="21">
-        <v>2.1044953425363722</v>
+        <v>32.535470235998588</v>
       </c>
       <c r="F57" s="21">
-        <v>2.1804064198261828</v>
+        <v>49.705559906029755</v>
       </c>
       <c r="G57" s="21">
-        <v>2.0350624865458178</v>
+        <v>38.889395194697599</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A58" s="10"/>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="21">
+        <v>154.71054060324823</v>
+      </c>
+      <c r="E58" s="21">
+        <v>52.133454808031004</v>
+      </c>
+      <c r="F58" s="21">
+        <v>70.652670321065003</v>
+      </c>
+      <c r="G58" s="21">
+        <v>66.66070422535212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="16.5">
+      <c r="A59" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="21">
-        <v>69.946094354215006</v>
-      </c>
-      <c r="E58" s="21">
-        <v>32.535470235998588</v>
-      </c>
-      <c r="F58" s="21">
-        <v>49.705559906029755</v>
-      </c>
-      <c r="G58" s="21">
-        <v>38.889395194697599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A59" s="10"/>
-      <c r="B59" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="C59" s="12" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D59" s="21">
-        <v>154.71054060324823</v>
+        <v>81829.477292202224</v>
       </c>
       <c r="E59" s="21">
-        <v>52.133454808031004</v>
+        <v>1413585.5624342952</v>
       </c>
       <c r="F59" s="21">
-        <v>70.652670321065003</v>
+        <v>2582099.6038483302</v>
       </c>
       <c r="G59" s="21">
-        <v>66.66070422535212</v>
+        <v>1611107.0356785594</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A60" s="10">
-        <v>2250</v>
-      </c>
+      <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="21">
-        <v>81829.477292202224</v>
+        <v>8193.4018851756646</v>
       </c>
       <c r="E60" s="21">
-        <v>1413585.5624342952</v>
-      </c>
-      <c r="F60" s="21">
-        <v>2582099.6038483302</v>
-      </c>
+        <v>247199.50940310711</v>
+      </c>
+      <c r="F60" s="21"/>
       <c r="G60" s="21">
-        <v>1611107.0356785594</v>
+        <v>6702.2340780260092</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A61" s="10"/>
+      <c r="A61" s="10">
+        <v>2249</v>
+      </c>
       <c r="B61" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="21">
-        <v>8193.4018851756646</v>
+        <v>2860615.6812339332</v>
       </c>
       <c r="E61" s="21">
-        <v>247199.50940310711</v>
-      </c>
-      <c r="F61" s="21"/>
+        <v>1581101.97406845</v>
+      </c>
+      <c r="F61" s="21">
+        <v>2583740.8036219585</v>
+      </c>
       <c r="G61" s="21">
-        <v>6702.2340780260092</v>
+        <v>1990213.4044681559</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A62" s="10">
-        <v>2249</v>
-      </c>
+      <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D62" s="21">
-        <v>2860615.6812339332</v>
+        <v>7.5174013921113696</v>
       </c>
       <c r="E62" s="21">
-        <v>1581101.97406845</v>
+        <v>10.658682634730539</v>
       </c>
       <c r="F62" s="21">
-        <v>2583740.8036219585</v>
+        <v>14.956930305403288</v>
       </c>
       <c r="G62" s="21">
-        <v>1990213.4044681559</v>
+        <v>16.901408450704224</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A63" s="10"/>
+      <c r="A63" s="10">
+        <v>1672</v>
+      </c>
       <c r="B63" s="11" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D63" s="21">
-        <v>7.5174013921113696</v>
+        <v>3.6955</v>
       </c>
       <c r="E63" s="21">
-        <v>10.658682634730539</v>
+        <v>7.3571428571428568</v>
       </c>
       <c r="F63" s="21">
-        <v>14.956930305403288</v>
+        <v>1.2</v>
       </c>
       <c r="G63" s="21">
-        <v>16.901408450704224</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A64" s="10">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="21">
-        <v>3.6955</v>
+        <v>21.178000000000001</v>
       </c>
       <c r="E64" s="21">
-        <v>7.3571428571428568</v>
+        <v>4.0145714285714282</v>
       </c>
       <c r="F64" s="21">
-        <v>1.2</v>
+        <v>0.93999999999999984</v>
       </c>
       <c r="G64" s="21">
-        <v>0.85000000000000009</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A65" s="10">
-        <v>1671</v>
+        <v>2139</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="21">
-        <v>21.178000000000001</v>
-      </c>
+      <c r="D65" s="21"/>
       <c r="E65" s="21">
-        <v>4.0145714285714282</v>
+        <v>86.342350749920072</v>
       </c>
       <c r="F65" s="21">
-        <v>0.93999999999999984</v>
+        <v>94.780540063648118</v>
       </c>
       <c r="G65" s="21">
-        <v>0.98</v>
+        <v>97.873858903482144</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A66" s="10">
-        <v>2139</v>
+        <v>203</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="21">
+        <v>103.8386</v>
+      </c>
       <c r="E66" s="21">
-        <v>86.342350749920072</v>
+        <v>98.337142857142865</v>
       </c>
       <c r="F66" s="21">
-        <v>94.780540063648118</v>
+        <v>110.61000000000001</v>
       </c>
       <c r="G66" s="21">
-        <v>97.873858903482144</v>
+        <v>99.58</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A67" s="10">
-        <v>203</v>
+        <v>1570</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="21">
-        <v>103.8386</v>
+        <v>2.4386503067484666</v>
       </c>
       <c r="E67" s="21">
-        <v>98.337142857142865</v>
+        <v>0.93443627450980393</v>
       </c>
       <c r="F67" s="21">
-        <v>110.61000000000001</v>
+        <v>1.0687022900763359</v>
       </c>
       <c r="G67" s="21">
-        <v>99.58</v>
+        <v>2.6473099914602902</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A68" s="10">
-        <v>1570</v>
-      </c>
+      <c r="A68" s="10"/>
       <c r="B68" s="11" t="s">
         <v>74</v>
       </c>
@@ -2508,20 +2509,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="21">
-        <v>2.4386503067484666</v>
+        <v>11.752428931270241</v>
       </c>
       <c r="E68" s="21">
-        <v>0.93443627450980393</v>
+        <v>5.8088726674548914</v>
       </c>
       <c r="F68" s="21">
-        <v>1.0687022900763359</v>
+        <v>8.7801367398344716</v>
       </c>
       <c r="G68" s="21">
-        <v>2.6473099914602902</v>
+        <v>6.009355883411299</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A69" s="10"/>
+      <c r="A69" s="10">
+        <v>376</v>
+      </c>
       <c r="B69" s="11" t="s">
         <v>75</v>
       </c>
@@ -2529,113 +2532,113 @@
         <v>22</v>
       </c>
       <c r="D69" s="21">
-        <v>11.752428931270241</v>
+        <v>21.657044776442298</v>
       </c>
       <c r="E69" s="21">
-        <v>5.8088726674548914</v>
+        <v>8.8539819700549529</v>
       </c>
       <c r="F69" s="21">
-        <v>8.7801367398344716</v>
+        <v>5.0084590527554287</v>
       </c>
       <c r="G69" s="21">
-        <v>6.009355883411299</v>
+        <v>11.208178482364136</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A70" s="10">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="21">
-        <v>21.657044776442298</v>
+        <v>33.406208218615959</v>
       </c>
       <c r="E70" s="21">
-        <v>8.8539819700549529</v>
+        <v>28.734631434868469</v>
       </c>
       <c r="F70" s="21">
-        <v>5.0084590527554287</v>
+        <v>24.307819715216773</v>
       </c>
       <c r="G70" s="21">
-        <v>11.208178482364136</v>
+        <v>34.023133035241145</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A71" s="10">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="21">
-        <v>33.406208218615959</v>
+        <v>52.343094148352442</v>
       </c>
       <c r="E71" s="21">
-        <v>28.734631434868469</v>
+        <v>37.175679876874732</v>
       </c>
       <c r="F71" s="21">
-        <v>24.307819715216773</v>
+        <v>22.104213570380082</v>
       </c>
       <c r="G71" s="21">
-        <v>34.023133035241145</v>
+        <v>46.611267856375868</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A72" s="10">
-        <v>542</v>
+        <v>1649</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="21">
-        <v>52.343094148352442</v>
+        <v>25.038</v>
       </c>
       <c r="E72" s="21">
-        <v>37.175679876874732</v>
+        <v>36.79</v>
       </c>
       <c r="F72" s="21">
-        <v>22.104213570380082</v>
+        <v>66.56</v>
       </c>
       <c r="G72" s="21">
-        <v>46.611267856375868</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A73" s="10">
-        <v>1649</v>
+        <v>1573</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="21">
-        <v>25.038</v>
+        <v>3.2822085889570549</v>
       </c>
       <c r="E73" s="21">
-        <v>36.79</v>
+        <v>2.7420343137254903</v>
       </c>
       <c r="F73" s="21">
-        <v>66.56</v>
+        <v>1.5267175572519083</v>
       </c>
       <c r="G73" s="21">
-        <v>20.51</v>
+        <v>1.6225448334756618</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="10">
-        <v>1573</v>
+        <v>2252</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>78</v>
@@ -2644,21 +2647,21 @@
         <v>22</v>
       </c>
       <c r="D74" s="21">
-        <v>3.2822085889570549</v>
+        <v>14.939445701136083</v>
       </c>
       <c r="E74" s="21">
-        <v>2.7420343137254903</v>
+        <v>62.382313955314061</v>
       </c>
       <c r="F74" s="21">
-        <v>1.5267175572519083</v>
+        <v>75.710910076466845</v>
       </c>
       <c r="G74" s="21">
-        <v>1.6225448334756618</v>
+        <v>53.783424868063513</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A75" s="10">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>79</v>
@@ -2667,21 +2670,21 @@
         <v>22</v>
       </c>
       <c r="D75" s="21">
-        <v>14.939445701136083</v>
+        <v>1.0760742872965889</v>
       </c>
       <c r="E75" s="21">
-        <v>62.382313955314061</v>
+        <v>38.254098825918064</v>
       </c>
       <c r="F75" s="21">
-        <v>75.710910076466845</v>
+        <v>44.089744581111248</v>
       </c>
       <c r="G75" s="21">
-        <v>53.783424868063513</v>
+        <v>28.559721887515995</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A76" s="10">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>80</v>
@@ -2690,154 +2693,154 @@
         <v>22</v>
       </c>
       <c r="D76" s="21">
-        <v>1.0760742872965889</v>
+        <v>1.8859996522612676E-2</v>
       </c>
       <c r="E76" s="21">
-        <v>38.254098825918064</v>
+        <v>10.692005106401021</v>
       </c>
       <c r="F76" s="21">
-        <v>44.089744581111248</v>
+        <v>12.209882349361928</v>
       </c>
       <c r="G76" s="21">
-        <v>28.559721887515995</v>
+        <v>4.9831281304198995</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A77" s="10">
-        <v>2254</v>
+        <v>1673</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="21">
-        <v>1.8859996522612676E-2</v>
+        <v>48.92</v>
       </c>
       <c r="E77" s="21">
-        <v>10.692005106401021</v>
+        <v>35.971428571428568</v>
       </c>
       <c r="F77" s="21">
-        <v>12.209882349361928</v>
+        <v>26.039999999999996</v>
       </c>
       <c r="G77" s="21">
-        <v>4.9831281304198995</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A78" s="10">
-        <v>1673</v>
+        <v>207</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="21">
-        <v>48.92</v>
+        <v>53.946000000000005</v>
       </c>
       <c r="E78" s="21">
-        <v>35.971428571428568</v>
+        <v>41.302857142857142</v>
       </c>
       <c r="F78" s="21">
-        <v>26.039999999999996</v>
+        <v>50.759999999999991</v>
       </c>
       <c r="G78" s="21">
-        <v>37.36</v>
+        <v>27.390000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" ht="16.5">
       <c r="A79" s="10">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="21">
-        <v>53.946000000000005</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E79" s="21">
-        <v>41.302857142857142</v>
+        <v>3.0328571428571429</v>
       </c>
       <c r="F79" s="21">
-        <v>50.759999999999991</v>
+        <v>2.14</v>
       </c>
       <c r="G79" s="21">
-        <v>27.390000000000004</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A80" s="10">
-        <v>306</v>
-      </c>
+      <c r="A80" s="10"/>
       <c r="B80" s="11" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="21">
-        <v>10.050000000000001</v>
+        <v>28.820393045934839</v>
       </c>
       <c r="E80" s="21">
-        <v>3.0328571428571429</v>
+        <v>53.354391649673104</v>
       </c>
       <c r="F80" s="21">
-        <v>2.14</v>
+        <v>63.45541536966568</v>
       </c>
       <c r="G80" s="21">
-        <v>3.44</v>
+        <v>58.147369539830798</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A81" s="10"/>
+      <c r="A81" s="10">
+        <v>2138</v>
+      </c>
       <c r="B81" s="11" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="21">
-        <v>28.820393045934839</v>
-      </c>
+      <c r="D81" s="21"/>
       <c r="E81" s="21">
-        <v>53.354391649673104</v>
+        <v>25.7786779719038</v>
       </c>
       <c r="F81" s="21">
-        <v>63.45541536966568</v>
+        <v>49.601746159554146</v>
       </c>
       <c r="G81" s="21">
-        <v>58.147369539830798</v>
+        <v>22.248838865841712</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A82" s="10">
-        <v>2138</v>
-      </c>
+      <c r="A82" s="10"/>
       <c r="B82" s="11" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="21">
+        <v>0.70411088861934323</v>
+      </c>
       <c r="E82" s="21">
-        <v>25.7786779719038</v>
+        <v>2.3421480552830953</v>
       </c>
       <c r="F82" s="21">
-        <v>49.601746159554146</v>
+        <v>0.93739168793521754</v>
       </c>
       <c r="G82" s="21">
-        <v>22.248838865841712</v>
+        <v>0.18960576912834606</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A83" s="10"/>
+      <c r="A83" s="10">
+        <v>1571</v>
+      </c>
       <c r="B83" s="11" t="s">
         <v>84</v>
       </c>
@@ -2845,43 +2848,20 @@
         <v>22</v>
       </c>
       <c r="D83" s="21">
-        <v>0.70411088861934323</v>
+        <v>8.1288343558282214</v>
       </c>
       <c r="E83" s="21">
-        <v>2.3421480552830953</v>
+        <v>2.8339460784313726</v>
       </c>
       <c r="F83" s="21">
-        <v>0.93739168793521754</v>
+        <v>3.0534351145038165</v>
       </c>
       <c r="G83" s="21">
-        <v>0.18960576912834606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" ht="16.5">
-      <c r="A84" s="10">
-        <v>1571</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="21">
-        <v>8.1288343558282214</v>
-      </c>
-      <c r="E84" s="21">
-        <v>2.8339460784313726</v>
-      </c>
-      <c r="F84" s="21">
-        <v>3.0534351145038165</v>
-      </c>
-      <c r="G84" s="21">
         <v>3.5866780529461995</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G84" xr:uid="{6CB8D8B8-8A14-4E8A-9EA1-82174882624B}"/>
+  <autoFilter ref="A1:G83" xr:uid="{6CB8D8B8-8A14-4E8A-9EA1-82174882624B}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2893,11 +2873,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -2912,25 +2892,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -2945,7 +2925,7 @@
         <v>1.0243</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>1.0128999999999999</v>
@@ -2964,7 +2944,7 @@
         <v>248.56346666666664</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>280.57329999999996</v>
@@ -2981,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -3022,10 +3002,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>4.2476952711540461</v>
@@ -3046,7 +3026,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>92.458165535366561</v>
@@ -3055,7 +3035,7 @@
         <v>51.736651205253473</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="22">
         <v>74.939095193643126</v>
@@ -3066,7 +3046,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>65.898058252427177</v>
@@ -3075,7 +3055,7 @@
         <v>47.311827956989241</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="23">
         <v>21.428571428571427</v>
@@ -3091,7 +3071,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>34.587378640776699</v>
@@ -3100,7 +3080,7 @@
         <v>26.881720430107531</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="23">
         <v>50</v>
@@ -3118,7 +3098,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>10.436893203883495</v>
@@ -3145,7 +3125,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>4.0346667972384083</v>
@@ -3170,7 +3150,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.18120805369127516</v>
@@ -3191,7 +3171,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.40939597315436244</v>
@@ -3212,7 +3192,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>1.3422818791946308E-2</v>
@@ -3233,7 +3213,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>1.3422818791946308E-2</v>
@@ -3254,7 +3234,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>20.134228187919462</v>
@@ -3275,7 +3255,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>29.530201342281881</v>
@@ -3296,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>61.073825503355707</v>
@@ -3314,10 +3294,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>40.268456375838923</v>
@@ -3378,19 +3358,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -3398,10 +3378,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>3.6156121975117776</v>
@@ -3419,10 +3399,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>10.067114093959731</v>
@@ -3440,10 +3420,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>3.4217877094972065</v>
@@ -3466,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>15.9825</v>
@@ -3489,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.27250000000000002</v>
@@ -3509,7 +3489,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -3531,7 +3511,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>6.19</v>
@@ -3549,10 +3529,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>5.5302013422818792</v>
@@ -3570,10 +3550,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>253.57650157718123</v>
@@ -3591,10 +3571,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>20.684295302013425</v>
@@ -3603,7 +3583,7 @@
         <v>186.13695912820515</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="22">
         <v>51.366</v>
@@ -3614,21 +3594,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.7442861083019214</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>4.0125043905865825</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>5.1080547945205481</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2.2856621004566211</v>
       </c>
     </row>
@@ -3637,10 +3617,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1.9746040268456377</v>
@@ -3658,10 +3638,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>33.37091503267974</v>
@@ -3679,10 +3659,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>61.736762638888891</v>
@@ -3702,10 +3682,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>511338.02816901408</v>
@@ -3728,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>110.08750000000001</v>
@@ -3746,10 +3726,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>24.161073825503358</v>
@@ -3767,14 +3747,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>5</v>
@@ -3786,10 +3766,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>7.5418344646334425</v>
@@ -3798,7 +3778,7 @@
         <v>48.263348794746534</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="22">
         <v>25.060904806356866</v>
@@ -3816,11 +3796,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -3835,25 +3815,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -3868,7 +3848,7 @@
         <v>1.9433999999999998</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>1.54</v>
@@ -3887,7 +3867,7 @@
         <v>340.74279999999999</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>235.62</v>
@@ -3904,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>3.3333333333333333E-2</v>
@@ -3945,10 +3925,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.23059076874408099</v>
@@ -3969,7 +3949,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>64.607427538602451</v>
@@ -3989,7 +3969,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>32.418410572910886</v>
@@ -4014,7 +3994,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>53.676878897015655</v>
@@ -4041,7 +4021,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>15.031176125275666</v>
@@ -4068,7 +4048,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>89.085666633687154</v>
@@ -4093,7 +4073,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.45719844357976647</v>
@@ -4114,7 +4094,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.33852140077821008</v>
@@ -4135,7 +4115,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>4.4747081712062257E-2</v>
@@ -4156,7 +4136,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>3.5019455252918288E-2</v>
@@ -4177,7 +4157,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>26.264591439688719</v>
@@ -4198,7 +4178,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>58.754863813229576</v>
@@ -4219,7 +4199,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>35.019455252918284</v>
@@ -4237,10 +4217,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>45.136186770428019</v>
@@ -4301,19 +4281,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -4321,10 +4301,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.40087608937894842</v>
@@ -4342,10 +4322,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>13.035019455252916</v>
@@ -4363,10 +4343,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>14.578081374861076</v>
@@ -4389,7 +4369,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>10.651666666666666</v>
@@ -4412,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.25999999999999995</v>
@@ -4432,7 +4412,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -4454,7 +4434,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>3.4816666666666669</v>
@@ -4472,10 +4452,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>122.62451361867704</v>
@@ -4493,10 +4473,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>469.86345525291836</v>
@@ -4514,10 +4494,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>257.39573638132293</v>
@@ -4537,21 +4517,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>3.7781674750812857</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>3.4347296671299055</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2.6643203371970494</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2.6147841819591626</v>
       </c>
     </row>
@@ -4560,10 +4540,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>9.5104046692606996</v>
@@ -4581,10 +4561,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>37.355332629355857</v>
@@ -4602,10 +4582,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>127.51310242872229</v>
@@ -4625,10 +4605,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>4055217.7554438864</v>
@@ -4651,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>105.38083333333333</v>
@@ -4669,10 +4649,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>18.093385214007782</v>
@@ -4690,14 +4670,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -4709,10 +4689,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>35.392572461397556</v>
@@ -4739,11 +4719,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -4758,25 +4738,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -4791,7 +4771,7 @@
         <v>0.77</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>1.24</v>
@@ -4810,7 +4790,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>244.28</v>
@@ -4827,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -4868,10 +4848,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.1820849116384389</v>
@@ -4892,7 +4872,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>92.61712003454231</v>
@@ -4912,7 +4892,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>18.211231800323546</v>
@@ -4937,7 +4917,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>10.261150912872658</v>
@@ -4964,7 +4944,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>11.324243124566673</v>
@@ -4991,7 +4971,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>54.76521959245666</v>
@@ -5016,7 +4996,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
@@ -5037,7 +5017,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.22500000000000001</v>
@@ -5058,7 +5038,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
@@ -5079,7 +5059,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>0</v>
@@ -5100,7 +5080,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>27.999999999999996</v>
@@ -5121,7 +5101,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>0</v>
@@ -5142,7 +5122,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>57.999999999999993</v>
@@ -5160,10 +5140,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>38</v>
@@ -5224,19 +5204,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -5244,10 +5224,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0</v>
@@ -5265,10 +5245,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>0</v>
@@ -5286,10 +5266,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>2.3895401262398557</v>
@@ -5312,7 +5292,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>8.3899999999999988</v>
@@ -5335,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.29800000000000004</v>
@@ -5355,7 +5335,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -5377,7 +5357,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>4.1959999999999997</v>
@@ -5395,10 +5375,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>86.54</v>
@@ -5416,10 +5396,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>171.601</v>
@@ -5437,10 +5417,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>13.678999999999998</v>
@@ -5460,21 +5440,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>4.2408219178082192</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>5.4959606603442221</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>5.2128556375131714</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>6.1963470319634695</v>
       </c>
     </row>
@@ -5483,10 +5463,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>3.8648000000000002</v>
@@ -5504,10 +5484,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>35.115555555555559</v>
@@ -5525,10 +5505,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>38.133555555555553</v>
@@ -5548,10 +5528,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>0</v>
@@ -5574,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>118.18599999999999</v>
@@ -5592,10 +5572,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>20</v>
@@ -5613,14 +5593,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>0</v>
@@ -5632,10 +5612,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>7.3828799654576853</v>
@@ -5664,10 +5644,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -5682,25 +5662,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -5715,13 +5695,13 @@
         <v>0.89973333333333338</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>0.87219999999999998</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19">
@@ -5734,13 +5714,13 @@
         <v>127.76213333333334</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>109.02499999999999</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19">
@@ -5751,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0.01</v>
@@ -5792,10 +5772,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>2.6812785204603613</v>
@@ -5816,7 +5796,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>28.96880959643347</v>
@@ -5825,7 +5805,7 @@
         <v>57.558071998249183</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="22">
         <v>100</v>
@@ -5836,7 +5816,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>37.607380603817361</v>
@@ -5861,7 +5841,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>61.707593293373478</v>
@@ -5888,7 +5868,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>32.356434549622954</v>
@@ -5915,7 +5895,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>50.863340685895729</v>
@@ -5940,7 +5920,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.25714285714285717</v>
@@ -5961,7 +5941,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.3</v>
@@ -5973,7 +5953,7 @@
         <v>0.7931034482758621</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19">
@@ -5982,7 +5962,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>1.4285714285714285E-2</v>
@@ -6003,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>0</v>
@@ -6024,7 +6004,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>31.428571428571427</v>
@@ -6045,7 +6025,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>52.857142857142861</v>
@@ -6066,7 +6046,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>46.428571428571438</v>
@@ -6084,10 +6064,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>47.857142857142861</v>
@@ -6148,19 +6128,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -6168,10 +6148,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>2.9688273132112815E-2</v>
@@ -6189,10 +6169,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>2.8571428571428572</v>
@@ -6210,10 +6190,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>6.4522513607125189</v>
@@ -6236,7 +6216,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>5.583333333333333</v>
@@ -6259,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.25666666666666665</v>
@@ -6279,7 +6259,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -6301,7 +6281,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2.4733333333333332</v>
@@ -6319,10 +6299,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>258.59285714285716</v>
@@ -6340,10 +6320,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>745.60764311428568</v>
@@ -6361,10 +6341,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>1828.2214285714288</v>
@@ -6373,7 +6353,7 @@
         <v>116.38625805128206</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="22">
         <v>0</v>
@@ -6384,21 +6364,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.9085322896281807</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.4271162627327012</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>5.9655172413793105</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>5.790215264187867</v>
       </c>
     </row>
@@ -6407,10 +6387,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>16.551971428571427</v>
@@ -6428,10 +6408,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>96.707880434782609</v>
@@ -6449,10 +6429,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>141.82754080978259</v>
@@ -6472,10 +6452,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>379220.77922077919</v>
@@ -6498,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>126.41266666666667</v>
@@ -6516,10 +6496,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>20.714285714285712</v>
@@ -6537,14 +6517,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>5</v>
@@ -6556,10 +6536,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>71.031190403566541</v>
@@ -6568,7 +6548,7 @@
         <v>42.441928001750817</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="22">
         <v>0</v>
@@ -6587,10 +6567,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -6605,25 +6585,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -6638,13 +6618,13 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19">
@@ -6657,13 +6637,13 @@
         <v>67.575000000000003</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19">
@@ -6674,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -6715,10 +6695,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>1.3500042682439892</v>
@@ -6739,7 +6719,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>95.593890072688879</v>
@@ -6759,7 +6739,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>36.825192802056556</v>
@@ -6784,7 +6764,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>4.8843187660668379</v>
@@ -6811,7 +6791,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>9.7686375321336758</v>
@@ -6838,7 +6818,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>83.431635388739949</v>
@@ -6863,7 +6843,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.16666666666666666</v>
@@ -6884,7 +6864,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0</v>
@@ -6905,7 +6885,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
@@ -6926,7 +6906,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>0</v>
@@ -6947,7 +6927,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>22.222222222222221</v>
@@ -6968,7 +6948,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>0</v>
@@ -6989,7 +6969,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>55.555555555555557</v>
@@ -7007,10 +6987,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>27.777777777777779</v>
@@ -7071,19 +7051,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -7091,10 +7071,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.69407154678408456</v>
@@ -7112,10 +7092,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>0</v>
@@ -7133,10 +7113,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>5.9741657696447792</v>
@@ -7145,7 +7125,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="22">
         <v>12</v>
@@ -7159,7 +7139,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>8.1549999999999994</v>
@@ -7182,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.32999999999999996</v>
@@ -7202,7 +7182,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -7224,7 +7204,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>4.5999999999999996</v>
@@ -7242,10 +7222,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>86.444444444444443</v>
@@ -7263,10 +7243,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>205.06950000000001</v>
@@ -7284,10 +7264,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>9.452055555555555</v>
@@ -7307,22 +7287,22 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.2910197869101978</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>3.7170024174053182</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>100</v>
+      <c r="F33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19">
@@ -7330,10 +7310,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1.9506666666666668</v>
@@ -7351,10 +7331,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>28.257575757575758</v>
@@ -7372,10 +7352,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>55.928045454545455</v>
@@ -7395,10 +7375,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>45111.111111111109</v>
@@ -7421,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>106.0805</v>
@@ -7439,10 +7419,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>0</v>
@@ -7460,14 +7440,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>0</v>
@@ -7479,10 +7459,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>4.4061099273111113</v>
@@ -7510,10 +7490,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -7528,25 +7508,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -7580,7 +7560,7 @@
         <v>353.32440000000003</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>469.77280000000002</v>
@@ -7597,7 +7577,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -7638,10 +7618,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>2.2722067263265529</v>
@@ -7662,7 +7642,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>72.003260460258332</v>
@@ -7682,7 +7662,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>27.536231884057973</v>
@@ -7707,7 +7687,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>31.884057971014489</v>
@@ -7734,10 +7714,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="23">
         <v>1.5544041450777202</v>
@@ -7761,7 +7741,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>6.7448680351906152</v>
@@ -7786,7 +7766,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.41062801932367149</v>
@@ -7807,7 +7787,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.77777777777777779</v>
@@ -7828,7 +7808,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>2.4154589371980676E-2</v>
@@ -7849,7 +7829,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>2.4154589371980676E-2</v>
@@ -7870,7 +7850,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>26.666666666666668</v>
@@ -7891,7 +7871,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>23.188405797101449</v>
@@ -7912,7 +7892,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>70.289855072463766</v>
@@ -7930,10 +7910,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>38.260869565217391</v>
@@ -7994,19 +7974,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>6.6537759901416944</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -8014,10 +7994,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>20.333617963692067</v>
@@ -8035,10 +8015,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>7.5362318840579716</v>
@@ -8056,10 +8036,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>14.253135689851767</v>
@@ -8082,7 +8062,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>9.6916666666666647</v>
@@ -8105,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>3.3341666666666665</v>
@@ -8125,7 +8105,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -8147,7 +8127,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>3.2566666666666664</v>
@@ -8165,10 +8145,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>2</v>
@@ -8186,10 +8166,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>324.09713408695649</v>
@@ -8207,10 +8187,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>126.01739130434784</v>
@@ -8230,21 +8210,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>1.7688902124280326</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>1.2237382840663302</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>0.51736091696952757</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>0.98665261678960314</v>
       </c>
     </row>
@@ -8253,10 +8233,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>3.1327536231884057E-2</v>
@@ -8274,10 +8254,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>19.549015860882861</v>
@@ -8295,10 +8275,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>213.67000049684694</v>
@@ -8318,10 +8298,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>632884.52547919587</v>
@@ -8344,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>87.058333333333337</v>
@@ -8362,10 +8342,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>23.913043478260871</v>
@@ -8383,14 +8363,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>5</v>
@@ -8402,10 +8382,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>27.996739539741668</v>
@@ -8432,7 +8412,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -8447,25 +8427,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -8480,7 +8460,7 @@
         <v>0.74163333333333326</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>0.59</v>
@@ -8499,7 +8479,7 @@
         <v>121.62786666666665</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>71.97999999999999</v>
@@ -8516,7 +8496,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -8557,10 +8537,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.35178046675477537</v>
@@ -8581,7 +8561,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>48.11354946663878</v>
@@ -8601,7 +8581,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>69.119420989143549</v>
@@ -8610,7 +8590,7 @@
         <v>34.343434343434339</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="23">
         <v>32.142857142857146</v>
@@ -8626,7 +8606,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>30.631785283474066</v>
@@ -8635,7 +8615,7 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="23">
         <v>7.1428571428571423</v>
@@ -8653,7 +8633,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>56.682247687977494</v>
@@ -8662,7 +8642,7 @@
         <v>1.0101010101010102</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="23">
         <v>0</v>
@@ -8680,7 +8660,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>30.218712029161605</v>
@@ -8705,7 +8685,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.34615384615384615</v>
@@ -8726,7 +8706,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.49615384615384617</v>
@@ -8747,7 +8727,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>3.2051282051282055E-2</v>
@@ -8768,7 +8748,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>3.2051282051282055E-2</v>
@@ -8789,7 +8769,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>20.833333333333336</v>
@@ -8810,7 +8790,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>59.615384615384613</v>
@@ -8831,7 +8811,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>26.602564102564102</v>
@@ -8849,10 +8829,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>40.384615384615387</v>
@@ -8913,19 +8893,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>7.3822331219980182</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -8933,10 +8913,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.32759756041944516</v>
@@ -8954,10 +8934,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>11.538461538461538</v>
@@ -8975,10 +8955,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>8.8758773120322605</v>
@@ -9001,7 +8981,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>6.6983333333333333</v>
@@ -9024,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.10999999999999999</v>
@@ -9044,7 +9024,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -9066,7 +9046,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2.2050000000000001</v>
@@ -9084,10 +9064,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>51.015384615384612</v>
@@ -9105,10 +9085,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>161.27966346153846</v>
@@ -9126,10 +9106,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>173.92666666666668</v>
@@ -9149,21 +9129,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.4962592202318228</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.2011600641737625</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>1.8660635823210132</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2.5205479452054793</v>
       </c>
     </row>
@@ -9172,10 +9152,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>15.109128205128204</v>
@@ -9193,10 +9173,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>69.893842887473454</v>
@@ -9214,10 +9194,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>66.771835191082801</v>
@@ -9237,10 +9217,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>2877648.8095238097</v>
@@ -9263,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>109.31833333333331</v>
@@ -9281,10 +9261,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>25.320512820512818</v>
@@ -9302,14 +9282,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>0</v>
@@ -9321,10 +9301,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>51.886450533361227</v>
@@ -9350,7 +9330,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -9365,25 +9345,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -9398,10 +9378,10 @@
         <v>0.97086666666666666</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22">
         <v>0.87</v>
@@ -9417,10 +9397,10 @@
         <v>92.879577777777783</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22">
         <v>88.74</v>
@@ -9434,7 +9414,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0.16200000000000001</v>
@@ -9475,10 +9455,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.78562382471164716</v>
@@ -9499,7 +9479,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>60.480893329097405</v>
@@ -9519,7 +9499,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>69.802561511783495</v>
@@ -9544,7 +9524,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>46.451295775417137</v>
@@ -9571,7 +9551,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>64.818809907425106</v>
@@ -9598,7 +9578,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>54.768848805731295</v>
@@ -9623,7 +9603,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.38108882521489973</v>
@@ -9644,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.57593123209169061</v>
@@ -9665,7 +9645,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>5.4441260744985676E-2</v>
@@ -9686,7 +9666,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>5.1575931232091692E-2</v>
@@ -9707,7 +9687,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>18.338108882521492</v>
@@ -9728,7 +9708,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>41.260744985673355</v>
@@ -9749,7 +9729,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>48.137535816618914</v>
@@ -9767,10 +9747,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>31.805157593123212</v>
@@ -9831,19 +9811,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>56.298848018217363</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23">
         <v>32.37248079883819</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -9851,10 +9831,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.21332261163208086</v>
@@ -9872,10 +9852,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>5.7306590257879657</v>
@@ -9893,10 +9873,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>12.754296912831206</v>
@@ -9919,7 +9899,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>6.4037999999999995</v>
@@ -9942,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.12659999999999999</v>
@@ -9962,7 +9942,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -9984,7 +9964,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2.4300000000000002</v>
@@ -10002,10 +9982,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>104.92550143266476</v>
@@ -10023,10 +10003,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>229.02639684813755</v>
@@ -10044,10 +10024,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>149.64922158548234</v>
@@ -10067,21 +10047,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.2965517918122229</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>1.3238237045860632</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>1.536362059996532</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>1.8372683319903305</v>
       </c>
     </row>
@@ -10090,10 +10070,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>15.888011461318053</v>
@@ -10111,10 +10091,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>67.536363636363646</v>
@@ -10132,10 +10112,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>80.737588383838386</v>
@@ -10155,10 +10135,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>3268586.251621271</v>
@@ -10181,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>114.63600000000001</v>
@@ -10199,10 +10179,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>22.063037249283667</v>
@@ -10220,14 +10200,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -10239,10 +10219,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>39.519106670902595</v>
@@ -10268,8 +10248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47DCD-4471-4DE4-BB5B-863EFE04219B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
@@ -10284,25 +10264,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -10317,10 +10297,10 @@
         <v>0.60359999999999991</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22">
         <v>0.69</v>
@@ -10336,10 +10316,10 @@
         <v>102.61199999999998</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22">
         <v>81.419999999999987</v>
@@ -10353,7 +10333,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -10394,10 +10374,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>1.4509756665862217</v>
@@ -10418,7 +10398,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>71.954737233897262</v>
@@ -10438,19 +10418,19 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="23">
         <v>32.5</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -10463,19 +10443,19 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="23">
         <v>63.125</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -10490,19 +10470,19 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>4.4334975369458123</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="23">
         <v>4.375</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -10517,7 +10497,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>0.27560925938497044</v>
@@ -10542,7 +10522,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.26975476839237056</v>
@@ -10563,7 +10543,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.9057220708446867</v>
@@ -10584,7 +10564,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>5.4495912806539508E-3</v>
@@ -10605,7 +10585,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>5.4495912806539508E-3</v>
@@ -10626,7 +10606,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>18.801089918256132</v>
@@ -10647,7 +10627,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>21.253405994550409</v>
@@ -10668,7 +10648,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>71.934604904632167</v>
@@ -10686,10 +10666,10 @@
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>30.517711171662125</v>
@@ -10750,19 +10730,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>23.407686574859806</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23">
         <v>13.538326064222458</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -10770,10 +10750,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.93503153507113768</v>
@@ -10791,10 +10771,10 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>2.4523160762942782</v>
@@ -10812,10 +10792,10 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>5.3040593903016902</v>
@@ -10838,7 +10818,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>6.2</v>
@@ -10861,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0</v>
@@ -10881,7 +10861,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -10903,7 +10883,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>1.2533333333333334</v>
@@ -10921,10 +10901,10 @@
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>0.55313351498637608</v>
@@ -10942,10 +10922,10 @@
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>166.65082010354226</v>
@@ -10963,10 +10943,10 @@
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>64.954250681198914</v>
@@ -10986,21 +10966,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>3.4157963495203614</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.238207497079749</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2.4824300178677783</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>1.9384474885844749</v>
       </c>
     </row>
@@ -11009,10 +10989,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>10.74658310626703</v>
@@ -11030,10 +11010,10 @@
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>56.788743253662304</v>
@@ -11051,10 +11031,10 @@
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>47.155629127216663</v>
@@ -11074,10 +11054,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>285657.46753246756</v>
@@ -11100,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>92.826666666666668</v>
@@ -11118,10 +11098,10 @@
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>15.803814713896458</v>
@@ -11139,14 +11119,14 @@
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>5</v>
@@ -11158,10 +11138,10 @@
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>28.045262766102741</v>
@@ -11189,11 +11169,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -11208,25 +11188,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -11241,13 +11221,13 @@
         <v>1.2362500000000001</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>1.4025000000000001</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19">
@@ -11260,13 +11240,13 @@
         <v>289.28250000000003</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>359.04</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19">
@@ -11277,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -11318,10 +11298,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.2913159764591931</v>
@@ -11342,7 +11322,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>88.815646168391098</v>
@@ -11352,7 +11332,7 @@
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="19">
@@ -11360,7 +11340,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>39.397430526462784</v>
@@ -11385,7 +11365,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>53.718056137410976</v>
@@ -11412,7 +11392,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>65.937019969278026</v>
@@ -11439,7 +11419,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>62.579743074368608</v>
@@ -11464,7 +11444,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.42499999999999999</v>
@@ -11485,7 +11465,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.46022727272727271</v>
@@ -11506,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>5.4545454545454543E-2</v>
@@ -11527,7 +11507,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>5.2272727272727269E-2</v>
@@ -11548,7 +11528,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>22.727272727272727</v>
@@ -11569,7 +11549,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>54.54545454545454</v>
@@ -11590,7 +11570,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>39.772727272727273</v>
@@ -11608,10 +11588,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>39.772727272727273</v>
@@ -11672,19 +11652,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>4.5698199761579978</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -11692,10 +11672,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.29465692747248429</v>
@@ -11713,10 +11693,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>10.909090909090908</v>
@@ -11734,10 +11714,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>8.1171670067035855</v>
@@ -11749,7 +11729,7 @@
         <v>5.4411433715957687</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19">
@@ -11760,7 +11740,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>7.331999999999999</v>
@@ -11783,7 +11763,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.13799999999999998</v>
@@ -11803,7 +11783,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -11825,7 +11805,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>3.5579999999999998</v>
@@ -11843,10 +11823,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>130.20000000000002</v>
@@ -11864,10 +11844,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>579.53062156363637</v>
@@ -11885,10 +11865,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>72.978982954545458</v>
@@ -11898,7 +11878,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19">
@@ -11906,21 +11886,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.4834760273972605</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.9086921069797782</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>4.2157382039573825</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>3.8914448177823724</v>
       </c>
     </row>
@@ -11929,10 +11909,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>7.4825272727272729</v>
@@ -11950,10 +11930,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>56.683591331269348</v>
@@ -11971,10 +11951,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>157.89069565820432</v>
@@ -11994,10 +11974,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>5150995.6140350876</v>
@@ -12020,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>108.10979999999999</v>
@@ -12038,10 +12018,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>30.22727272727273</v>
@@ -12059,14 +12039,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -12078,10 +12058,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>11.184353831608917</v>
@@ -12091,7 +12071,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -12106,11 +12086,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
@@ -12125,25 +12105,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -12158,7 +12138,7 @@
         <v>1.0385333333333333</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>0.93</v>
@@ -12177,7 +12157,7 @@
         <v>153.70293333333333</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>136.71</v>
@@ -12194,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -12235,10 +12215,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.43090718990745358</v>
@@ -12259,7 +12239,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>54.499840026328563</v>
@@ -12279,7 +12259,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>50.666666666666671</v>
@@ -12304,7 +12284,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>57.955555555555563</v>
@@ -12331,7 +12311,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>55.24444444444444</v>
@@ -12340,7 +12320,7 @@
         <v>10.077519379844961</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="23">
         <v>32.903225806451616</v>
@@ -12358,7 +12338,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>5.3126180581790701</v>
@@ -12383,7 +12363,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.60355029585798814</v>
@@ -12404,7 +12384,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.36449704142011835</v>
@@ -12425,7 +12405,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>6.9033530571992102E-2</v>
@@ -12446,7 +12426,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>6.5088757396449703E-2</v>
@@ -12467,7 +12447,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>33.136094674556219</v>
@@ -12488,7 +12468,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>41.42011834319527</v>
@@ -12509,7 +12489,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>21.77514792899408</v>
@@ -12527,10 +12507,10 @@
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>50.493096646942803</v>
@@ -12591,19 +12571,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>4.3213160003544884</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -12611,10 +12591,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>1.4369964385395919</v>
@@ -12632,10 +12612,10 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>9.2702169625246551</v>
@@ -12653,10 +12633,10 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>9.9478375159157189</v>
@@ -12679,7 +12659,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>9.9850000000000012</v>
@@ -12702,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.90333333333333321</v>
@@ -12722,7 +12702,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -12744,7 +12724,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>3.481666666666666</v>
@@ -12762,10 +12742,10 @@
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>4.4378698224852071</v>
@@ -12783,10 +12763,10 @@
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>133.78579881656802</v>
@@ -12804,10 +12784,10 @@
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>111.6934516765286</v>
@@ -12827,21 +12807,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>1.833962875901759</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>3.0790763209393348</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2.8020091324200913</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2.4037591589678242</v>
       </c>
     </row>
@@ -12850,10 +12830,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>6.9271952662721894</v>
@@ -12871,10 +12851,10 @@
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>34.099838969404189</v>
@@ -12892,10 +12872,10 @@
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>54.613043478260856</v>
@@ -12915,10 +12895,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>4578432.203389829</v>
@@ -12941,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>114.39166666666667</v>
@@ -12959,10 +12939,10 @@
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>23.668639053254438</v>
@@ -12980,14 +12960,14 @@
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -12999,10 +12979,10 @@
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>45.500159973671437</v>
@@ -13029,11 +13009,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
@@ -13048,25 +13028,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -13081,7 +13061,7 @@
         <v>0.93104999999999993</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>0.5</v>
@@ -13100,7 +13080,7 @@
         <v>139.34714999999997</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>64</v>
@@ -13117,7 +13097,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -13158,10 +13138,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.6013941589022791</v>
@@ -13182,7 +13162,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>66.805533811815408</v>
@@ -13202,7 +13182,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>66.051660516605153</v>
@@ -13211,7 +13191,7 @@
         <v>40.322580645161288</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="23">
         <v>38.82352941176471</v>
@@ -13227,7 +13207,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>46.332103321033202</v>
@@ -13236,7 +13216,7 @@
         <v>6.4516129032258061</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="23">
         <v>45.294117647058826</v>
@@ -13254,7 +13234,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>60.118081180811814</v>
@@ -13263,7 +13243,7 @@
         <v>6.4516129032258061</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="23">
         <v>50.588235294117645</v>
@@ -13281,7 +13261,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>17.886938706543319</v>
@@ -13306,7 +13286,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.30398322851153037</v>
@@ -13327,7 +13307,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.36687631027253664</v>
@@ -13348,7 +13328,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>5.2410901467505246E-2</v>
@@ -13369,7 +13349,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>5.2410901467505246E-2</v>
@@ -13390,7 +13370,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>37.735849056603769</v>
@@ -13411,7 +13391,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>50.943396226415096</v>
@@ -13432,7 +13412,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>41.509433962264147</v>
@@ -13450,10 +13430,10 @@
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>65.408805031446533</v>
@@ -13514,19 +13494,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>3.8394652979650772</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -13534,10 +13514,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.44510437890399063</v>
@@ -13555,10 +13535,10 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>15.723270440251572</v>
@@ -13576,10 +13556,10 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>9.1542698692247164</v>
@@ -13602,7 +13582,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>8.5785</v>
@@ -13625,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.375</v>
@@ -13645,7 +13625,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -13667,7 +13647,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2.4006666666666665</v>
@@ -13685,10 +13665,10 @@
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>35.508385744234801</v>
@@ -13706,10 +13686,10 @@
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>323.60919025157233</v>
@@ -13727,10 +13707,10 @@
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>160.79557651991615</v>
@@ -13750,21 +13730,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>4.3519255621607655</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>3.3181601105944449</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>4.1324486301369863</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>3.5525559639158035</v>
       </c>
     </row>
@@ -13773,10 +13753,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>20.025073375262053</v>
@@ -13794,10 +13774,10 @@
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>49.707086614173228</v>
@@ -13815,10 +13795,10 @@
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>81.029702755905518</v>
@@ -13838,10 +13818,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>2927129.3050113427</v>
@@ -13864,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>123.27316666666668</v>
@@ -13882,10 +13862,10 @@
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>34.591194968553459</v>
@@ -13903,14 +13883,14 @@
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -13922,10 +13902,10 @@
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>33.194466188184585</v>
@@ -13952,11 +13932,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -13971,25 +13951,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -14004,13 +13984,13 @@
         <v>1.2645</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19">
@@ -14023,13 +14003,13 @@
         <v>103.68899999999999</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19">
@@ -14040,7 +14020,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -14081,10 +14061,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>2.7588910166417673</v>
@@ -14105,7 +14085,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>79.358250805080786</v>
@@ -14117,7 +14097,7 @@
         <v>84.250524109014677</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="19">
@@ -14125,10 +14105,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="23">
         <v>38.461538461538467</v>
@@ -14150,10 +14130,10 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="23">
         <v>17.948717948717949</v>
@@ -14177,7 +14157,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>3.5087719298245612</v>
@@ -14204,7 +14184,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>0.45144939014731511</v>
@@ -14229,7 +14209,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>7.8260869565217397E-2</v>
@@ -14250,7 +14230,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.25217391304347825</v>
@@ -14271,7 +14251,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>5.2173913043478258E-2</v>
@@ -14292,7 +14272,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>4.7826086956521741E-2</v>
@@ -14313,7 +14293,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>20.434782608695652</v>
@@ -14334,7 +14314,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>58.260869565217391</v>
@@ -14355,7 +14335,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>37.391304347826086</v>
@@ -14373,10 +14353,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>36.521739130434781</v>
@@ -14437,19 +14417,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>0.92463041191736117</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23">
         <v>4.4161970908137862</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -14457,10 +14437,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>3.117978215102208</v>
@@ -14478,10 +14458,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>5.6521739130434785</v>
@@ -14499,10 +14479,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>21.647819063004846</v>
@@ -14514,7 +14494,7 @@
         <v>9.6318709026727181</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19">
@@ -14525,7 +14505,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>11.37</v>
@@ -14548,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>1.4279999999999999</v>
@@ -14568,7 +14548,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -14590,7 +14570,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>1.988</v>
@@ -14608,10 +14588,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>0.74347826086956526</v>
@@ -14629,10 +14609,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>474.53790447391299</v>
@@ -14650,10 +14630,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>123.43130434782609</v>
@@ -14665,7 +14645,7 @@
         <v>80.13333333333334</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19">
@@ -14673,21 +14653,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.970175699821322</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.8373414510400812</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>3.3793607305936075</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>4.0050735667174022</v>
       </c>
     </row>
@@ -14696,10 +14676,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>4.3443826086956525</v>
@@ -14717,10 +14697,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>51.464673913043484</v>
@@ -14738,10 +14718,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>148.29309514809782</v>
@@ -14761,10 +14741,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>207145.55052790346</v>
@@ -14787,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>142.52199999999999</v>
@@ -14805,10 +14785,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>27.826086956521738</v>
@@ -14826,14 +14806,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>0</v>
@@ -14845,10 +14825,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>20.64174919491921</v>
@@ -14860,7 +14840,7 @@
         <v>15.749475890985327</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -14876,10 +14856,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
@@ -14894,25 +14874,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -14927,13 +14907,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
@@ -14946,13 +14926,13 @@
         <v>35.840000000000003</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -14963,7 +14943,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -15004,10 +14984,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>5.428881650380022E-2</v>
@@ -15028,7 +15008,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>52.723456543540173</v>
@@ -15037,10 +15017,10 @@
         <v>39.870636846731614</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
@@ -15048,7 +15028,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>2.2988505747126435</v>
@@ -15073,7 +15053,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>2.2988505747126435</v>
@@ -15100,7 +15080,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -15127,7 +15107,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>0.82880823092312084</v>
@@ -15152,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.2424242424242424</v>
@@ -15173,7 +15153,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.2424242424242424</v>
@@ -15194,7 +15174,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>4.5454545454545456E-2</v>
@@ -15215,7 +15195,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>3.03030303030303E-2</v>
@@ -15236,7 +15216,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>19.696969696969695</v>
@@ -15257,7 +15237,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>34.848484848484851</v>
@@ -15278,7 +15258,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>56.060606060606069</v>
@@ -15296,10 +15276,10 @@
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>33.333333333333329</v>
@@ -15360,19 +15340,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -15380,10 +15360,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.85303462662570906</v>
@@ -15401,10 +15381,10 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>6.0606060606060597</v>
@@ -15422,10 +15402,10 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>14.405360134003351</v>
@@ -15434,10 +15414,10 @@
         <v>9.8107636558851166</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1">
@@ -15448,7 +15428,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>9.3333333333333339</v>
@@ -15471,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.5</v>
@@ -15491,7 +15471,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -15513,7 +15493,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2.0566666666666666</v>
@@ -15531,10 +15511,10 @@
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>1.3181818181818181</v>
@@ -15552,10 +15532,10 @@
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>154.06375334848485</v>
@@ -15573,10 +15553,10 @@
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>138.14727272727271</v>
@@ -15585,10 +15565,10 @@
         <v>176.59376545098041</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
@@ -15596,21 +15576,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.4985056039850559</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.9079237174321788</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="22">
+      <c r="F33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="23">
         <v>4.212545061283345</v>
       </c>
     </row>
@@ -15619,10 +15599,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>17.404848484848483</v>
@@ -15640,10 +15620,10 @@
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>44.668085106382982</v>
@@ -15661,10 +15641,10 @@
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>43.268969025531916</v>
@@ -15684,10 +15664,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>393489.93288590596</v>
@@ -15710,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>113.34666666666668</v>
@@ -15728,10 +15708,10 @@
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>21.212121212121211</v>
@@ -15749,14 +15729,14 @@
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>5</v>
@@ -15768,10 +15748,10 @@
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>47.276543456459841</v>
@@ -15780,10 +15760,10 @@
         <v>60.129363153268386</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -15799,10 +15779,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -15817,25 +15797,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -15850,7 +15830,7 @@
         <v>0.69676666666666665</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22">
         <v>0.68</v>
@@ -15869,7 +15849,7 @@
         <v>107.53432222222223</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22">
         <v>72.08</v>
@@ -15886,7 +15866,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -15927,10 +15907,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>0.6392582140072981</v>
@@ -15951,7 +15931,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>88.718098479998957</v>
@@ -15971,7 +15951,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>15.515515515515515</v>
@@ -15980,7 +15960,7 @@
         <v>60.716795502459597</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="23">
         <v>4.4410413476263404</v>
@@ -15996,7 +15976,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>67.367367367367365</v>
@@ -16005,7 +15985,7 @@
         <v>0.98383696416022481</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="23">
         <v>92.802450229709038</v>
@@ -16023,7 +16003,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>5.0884217550884214</v>
@@ -16032,7 +16012,7 @@
         <v>0.56219255094869991</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="23">
         <v>1.2251148545176112</v>
@@ -16050,7 +16030,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>1.4081529093369416</v>
@@ -16075,7 +16055,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.84946236559139787</v>
@@ -16096,7 +16076,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.4946236559139785</v>
@@ -16117,7 +16097,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>6.8100358422939059E-2</v>
@@ -16138,7 +16118,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>6.0931899641577067E-2</v>
@@ -16159,7 +16139,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>30.967741935483872</v>
@@ -16180,7 +16160,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>62.365591397849464</v>
@@ -16201,7 +16181,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>31.541218637992831</v>
@@ -16219,10 +16199,10 @@
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>51.182795698924735</v>
@@ -16283,19 +16263,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>0.29741428886679777</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19">
@@ -16303,10 +16283,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>0.32049574771853173</v>
@@ -16324,10 +16304,10 @@
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>12.903225806451612</v>
@@ -16345,10 +16325,10 @@
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>9.0562375880122783</v>
@@ -16371,7 +16351,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>6.4333333333333336</v>
@@ -16394,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>0.28499999999999998</v>
@@ -16414,7 +16394,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -16436,7 +16416,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2.0283333333333338</v>
@@ -16454,10 +16434,10 @@
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>4.2967741935483863</v>
@@ -16475,10 +16455,10 @@
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>391.3359139784946</v>
@@ -16496,10 +16476,10 @@
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>49.764516129032252</v>
@@ -16519,21 +16499,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>6.9322727942259545</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>3.5431466320823541</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>3.6219178082191781</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>3.6599695585996956</v>
       </c>
     </row>
@@ -16542,10 +16522,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>4.7848028673835126</v>
@@ -16563,10 +16543,10 @@
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>98.704695652173911</v>
@@ -16584,10 +16564,10 @@
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>126.58866086956522</v>
@@ -16607,10 +16587,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>11617125.668449199</v>
@@ -16633,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>131.815</v>
@@ -16651,10 +16631,10 @@
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>34.767025089605738</v>
@@ -16672,14 +16652,14 @@
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -16691,10 +16671,10 @@
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>11.281901520001053</v>
@@ -16721,11 +16701,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E15" sqref="E15"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E45" sqref="E45"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
@@ -16740,25 +16720,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16773,10 +16753,10 @@
         <v>0.87966666666666671</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22">
         <v>0.52</v>
@@ -16792,10 +16772,10 @@
         <v>118.75500000000001</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22">
         <v>33.800000000000004</v>
@@ -16809,7 +16789,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -16850,10 +16830,10 @@
         <v>359</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="22">
         <v>1.698588855110569</v>
@@ -16874,7 +16854,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="22">
         <v>72.004000879018704</v>
@@ -16894,7 +16874,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23">
         <v>58.263772954924875</v>
@@ -16919,7 +16899,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23">
         <v>24.332220367278797</v>
@@ -16946,7 +16926,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="23">
         <v>0.87646076794657757</v>
@@ -16973,7 +16953,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="23">
         <v>15.644111693908199</v>
@@ -16998,7 +16978,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="22">
         <v>0.20282186948853617</v>
@@ -17019,7 +16999,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22">
         <v>0.19400352733686069</v>
@@ -17040,7 +17020,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="22">
         <v>5.2910052910052914E-2</v>
@@ -17061,7 +17041,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22">
         <v>5.2910052910052914E-2</v>
@@ -17082,7 +17062,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="22">
         <v>18.518518518518519</v>
@@ -17103,7 +17083,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>46.296296296296305</v>
@@ -17124,7 +17104,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22">
         <v>47.61904761904762</v>
@@ -17142,10 +17122,10 @@
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>39.682539682539684</v>
@@ -17206,19 +17186,19 @@
         <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="23">
         <v>6.0356767661985371</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="23">
         <v>5.5738612230188052</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -17226,10 +17206,10 @@
         <v>323</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="22">
         <v>1.0450972680442769</v>
@@ -17247,10 +17227,10 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22">
         <v>6.878306878306879</v>
@@ -17268,10 +17248,10 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="22">
         <v>15.688898802884973</v>
@@ -17294,7 +17274,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="22">
         <v>8.9533333333333331</v>
@@ -17317,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22">
         <v>9.1666666666666674E-2</v>
@@ -17337,7 +17317,7 @@
         <v>199</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="22">
@@ -17359,7 +17339,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>4.5783333333333331</v>
@@ -17377,10 +17357,10 @@
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>31.693121693121697</v>
@@ -17398,10 +17378,10 @@
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>191.34953703703707</v>
@@ -17419,10 +17399,10 @@
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="22">
         <v>74.398941798941806</v>
@@ -17442,21 +17422,21 @@
         <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="22">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23">
         <v>2.7522649851416974</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>2.4262114087098752</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2.3269041095890413</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2.1419520547945203</v>
       </c>
     </row>
@@ -17465,10 +17445,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>8.1349911816578491</v>
@@ -17486,10 +17466,10 @@
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="22">
         <v>85.087037037037035</v>
@@ -17507,10 +17487,10 @@
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>80.366805555555558</v>
@@ -17530,10 +17510,10 @@
         <v>2249</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="22">
         <v>2499292.5304376436</v>
@@ -17556,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22">
         <v>121.15833333333335</v>
@@ -17574,10 +17554,10 @@
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="22">
         <v>25.132275132275133</v>
@@ -17595,14 +17575,14 @@
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="22">
         <v>7</v>
@@ -17614,10 +17594,10 @@
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="22">
         <v>27.995999120981292</v>
